--- a/biology/Botanique/Pied_de_chat_des_Carpates/Pied_de_chat_des_Carpates.xlsx
+++ b/biology/Botanique/Pied_de_chat_des_Carpates/Pied_de_chat_des_Carpates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antennaria carpatica
 Le Pied de chat des Carpates (Antennaria carpatica), également appelé Antennaire des Carpates, est une espèce de plante à fleurs du genre Antennaria et de la famille des Asteraceae, originaire des montagnes européennes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pied de chat des Carpates est une plante vivace herbacée qui mesure de 10 à 20 cm de haut (exceptionnellement 25 cm). Contrairement au Pied de chat dioïque, il ne forme aucun stolon. Les feuilles, d'un vert clair laineux, sont fines, linéaires et petites. La plante forme une hampe florale non ramifiée, d'un blanc feutré laineux. De deux à six capitules se développent sur la tige. Cette plante dioïque a des fleurs mâles jaunes à blanches et des fleurs femelles tirant sur le rouge, le réceptacle du capitule étant constamment brunâtre. Elle fleurit de juillet à septembre.
 </t>
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antennaria carpatica se développe en Europe dans les Alpes, les Pyrénées et les Carpates et atteint 1 400 à 3 200 m d'altitude. Elle affectionne les sols faiblement acides, les situations sèches exposées au vent (arêtes balayées par le vent et la neige).
 </t>
@@ -574,7 +590,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnaphalium carpaticum Wahlenb.
 </t>
